--- a/data/trans_camb/P43C-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Clase-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.30101956036662</v>
+        <v>0.8956038563822439</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9724083854035975</v>
+        <v>-1.342034277834015</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.811998206423243</v>
+        <v>-6.687136612378882</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.81351679216441</v>
+        <v>14.83581841887939</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.95255760823584</v>
+        <v>12.25513407187164</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.591293415703223</v>
+        <v>7.073440286194408</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.01570004977920801</v>
+        <v>0.01224267065355506</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01303690100108144</v>
+        <v>-0.01684134340657956</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.07453057382667558</v>
+        <v>-0.08743603696519281</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.212751330855303</v>
+        <v>0.2125335808097142</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1715517707438562</v>
+        <v>0.1739789992717779</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1078671538851908</v>
+        <v>0.1018506743060344</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.660971838674435</v>
+        <v>6.985123860319993</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.095875608920233</v>
+        <v>7.614217466687914</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9820185024192317</v>
+        <v>0.08709022454440661</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.89367553115488</v>
+        <v>20.26474211761676</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.22162044076702</v>
+        <v>20.09469801914059</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.11661515757052</v>
+        <v>13.12031514584678</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1085915536790253</v>
+        <v>0.09678849784780595</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.09940647673369621</v>
+        <v>0.1017321247440594</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.01243940951651008</v>
+        <v>0.001419294470224813</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3295174499909531</v>
+        <v>0.316328008810182</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3209406174153758</v>
+        <v>0.3129948487815208</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2194851371571688</v>
+        <v>0.2055392505596068</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.977293074292716</v>
+        <v>-6.429710965783397</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.74978536079845</v>
+        <v>-3.372813130889175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.777416352024</v>
+        <v>-13.80403524374497</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.54683418944426</v>
+        <v>11.66744527798493</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.6615842892812</v>
+        <v>16.84489616541369</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.456459224219805</v>
+        <v>6.477380437580585</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08492528999514441</v>
+        <v>-0.08996828977911608</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05131213695795009</v>
+        <v>-0.05202329304404624</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1971222013325934</v>
+        <v>-0.1977250760518434</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2101821487917408</v>
+        <v>0.1976790958667973</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2965791951222568</v>
+        <v>0.273487480651541</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1215365950034238</v>
+        <v>0.1059485852295351</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>11.17069286302161</v>
+        <v>10.72541175568725</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.665747275793398</v>
+        <v>8.660283758015423</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.304452682335843</v>
+        <v>3.038961550477366</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>20.47451012703409</v>
+        <v>20.75134954254196</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.20898818168664</v>
+        <v>18.45280045916518</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.85627233368704</v>
+        <v>13.07891550141794</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1884687437702902</v>
+        <v>0.1851984600726378</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1472350747269953</v>
+        <v>0.1485585979653111</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.05607606629714085</v>
+        <v>0.0505891550868988</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3834013829034401</v>
+        <v>0.3894547466159867</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3438275528520631</v>
+        <v>0.3452038786031892</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2382337984682707</v>
+        <v>0.2420010498271258</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.458839810112234</v>
+        <v>2.20457474865052</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1989946933199399</v>
+        <v>0.3544212709971653</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.72616351038032</v>
+        <v>-9.928132156624104</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.15230576821743</v>
+        <v>13.56222794719288</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.9609719599554</v>
+        <v>11.63275774974952</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2024990248766278</v>
+        <v>0.9440312106254736</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.04043013515611309</v>
+        <v>0.03523443149000918</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.004092500700503515</v>
+        <v>0.01008309619943101</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1789555619280284</v>
+        <v>-0.1680433494946929</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.271427606803512</v>
+        <v>0.2556890166078679</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2341770086851963</v>
+        <v>0.2257093252219281</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.003578461998846032</v>
+        <v>0.01728592566387466</v>
       </c>
     </row>
     <row r="34">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>5.777763114531854</v>
+        <v>5.801154230994618</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>3.514437513529642</v>
+        <v>3.496472827133875</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.262481570790884</v>
+        <v>-2.805984110263146</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>13.65344721555332</v>
+        <v>13.5303080108425</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.13888453610325</v>
+        <v>11.37183015889392</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.098622141064656</v>
+        <v>5.780209599331773</v>
       </c>
     </row>
     <row r="37">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1344657724181957</v>
+        <v>0.1384214388669438</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.08512291953861721</v>
+        <v>0.08198724129507777</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.07744855777567973</v>
+        <v>-0.06543134170308473</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3493023626061074</v>
+        <v>0.3521442738988521</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3142650503659596</v>
+        <v>0.2967718805762425</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1552658750696161</v>
+        <v>0.1508011104813647</v>
       </c>
     </row>
     <row r="40">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>8.958963940685749</v>
+        <v>8.956965527645707</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>7.553307693850519</v>
+        <v>7.999374379089795</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.86906304698476</v>
+        <v>1.837854018711258</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>13.91639019674594</v>
+        <v>13.69652099181875</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>12.42406891922169</v>
+        <v>12.53966149051333</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.609533603907772</v>
+        <v>6.579787742033995</v>
       </c>
     </row>
     <row r="43">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.160717200280036</v>
+        <v>0.1611927827150883</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1380254355720004</v>
+        <v>0.1451850269709168</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.03395357158611756</v>
+        <v>0.03335780937408338</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2642302036026209</v>
+        <v>0.2623946915307968</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2375479816336466</v>
+        <v>0.2375834927180489</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1248665675153</v>
+        <v>0.1230612821118359</v>
       </c>
     </row>
     <row r="46">
